--- a/CAPSTONE/Fase 2/Evidencias Grupales/PLANILLA DE EVALUACION AVANCE FASE 2.xlsx
+++ b/CAPSTONE/Fase 2/Evidencias Grupales/PLANILLA DE EVALUACION AVANCE FASE 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\DUOC\CAPSTONE\2025-2\Rúbricas\4D\Fase 2\--Equipo 1 (Evidencias Proyecto - nombre carpeta)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\DUOC\CAPSTONE\2025-2\Rúbricas\4D\Fase 2\--Equipo 1 (Evidencias Proyecto)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16728313-2A44-4A8B-AA96-95D4539FE28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689F3E34-E77A-422A-88FD-3AAD62F0C752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1264,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C4" s="5">
         <f>EVALUACION2!$C$22</f>
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C5" s="5">
         <f>EVALUACION2!$C$22</f>
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C6" s="5">
         <f>EVALUACION2!$C$22</f>
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1467,7 +1467,7 @@
         <v>3. Genera evidencias que dan cuenta del avance del Proyecto APT en relación a documentación, programación y almacenamiento de datos , de acuerdo a lo planificado por el equipo y que cumpla con estándares de desarrollo de la industria</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="15" t="str">
         <f t="shared" si="0"/>
@@ -1479,11 +1479,11 @@
       </c>
       <c r="F15" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G15" s="15" t="str">
+        <v>X</v>
+      </c>
+      <c r="G15" s="15">
         <f>IF(F15="X",60*0.25,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="H15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1495,11 +1495,11 @@
       </c>
       <c r="J15" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>X</v>
-      </c>
-      <c r="K15" s="15">
+        <v/>
+      </c>
+      <c r="K15" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1635,15 +1635,15 @@
         <v>7.- Generan evidencias claras dentro del repositorio  del aporte de cada uno de los integrantes del equipo que permitan identificar la equidad en el trabajo y la participación de cada estudiante.</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="15" t="str">
         <f>IF($C19=CL,"X","")</f>
-        <v/>
-      </c>
-      <c r="E19" s="15" t="str">
+        <v>X</v>
+      </c>
+      <c r="E19" s="15">
         <f>IF(D19="X",100*0.15,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="F19" s="15" t="str">
         <f>IF($C19=L,"X","")</f>
@@ -1663,11 +1663,11 @@
       </c>
       <c r="J19" s="15" t="str">
         <f>IF($C19=NL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="K19" s="15">
+        <v/>
+      </c>
+      <c r="K19" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="C21" s="31">
         <f>E21+G21+I21+K21</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16">
         <f>SUM(E13:E20)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16">
         <f>SUM(G13:G20)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C22" s="17">
         <f>VLOOKUP(C21,ESCALA_IEP!A2:B202,2,FALSE)</f>
-        <v>4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
